--- a/заказы/статистика филиалы/2023/10,23/12,10,23 ЗПФ/дв 13,10,23 мррсч зпф.xlsx
+++ b/заказы/статистика филиалы/2023/10,23/12,10,23 ЗПФ/дв 13,10,23 мррсч зпф.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\12,10,23 филиалы ЗПФ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\заказы\статистика филиалы\2023\10,23\12,10,23 ЗПФ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96706BAA-6AED-44D5-8D83-FA7F67ED9056}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{008533AB-587D-4D5E-8E7F-A0A06A65D81B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -241,10 +241,14 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
@@ -367,7 +371,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -421,6 +425,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2609,10 +2614,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:Z42"/>
+  <dimension ref="A1:AA42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AD26" sqref="AD26"/>
+      <selection activeCell="AB11" sqref="AB11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="2" x14ac:dyDescent="0.2"/>
@@ -2637,15 +2642,15 @@
     <col min="27" max="16384" width="10.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="12.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="12.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="12.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" ht="12.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
     </row>
-    <row r="3" spans="1:26" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -2717,7 +2722,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -2759,7 +2764,7 @@
       <c r="Y4" s="10"/>
       <c r="Z4" s="13"/>
     </row>
-    <row r="5" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -2837,7 +2842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>11</v>
       </c>
@@ -2901,15 +2906,19 @@
         <f>VLOOKUP(A6,[1]TDSheet!$A:$W,23,0)</f>
         <v>12</v>
       </c>
-      <c r="X6" s="18">
+      <c r="X6" s="25">
         <v>22</v>
       </c>
       <c r="Y6" s="2">
         <f>X6*W6*H6</f>
         <v>79.2</v>
       </c>
+      <c r="AA6" s="2">
+        <f>X6</f>
+        <v>22</v>
+      </c>
     </row>
-    <row r="7" spans="1:26" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>12</v>
       </c>
@@ -2955,7 +2964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>13</v>
       </c>
@@ -3019,15 +3028,19 @@
         <f>VLOOKUP(A8,[1]TDSheet!$A:$W,23,0)</f>
         <v>12</v>
       </c>
-      <c r="X8" s="18">
+      <c r="X8" s="25">
         <v>11</v>
       </c>
       <c r="Y8" s="2">
         <f t="shared" ref="Y8:Y25" si="6">X8*W8*H8</f>
         <v>39.6</v>
       </c>
+      <c r="AA8" s="2">
+        <f t="shared" ref="AA7:AA38" si="7">X8</f>
+        <v>11</v>
+      </c>
     </row>
-    <row r="9" spans="1:26" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>14</v>
       </c>
@@ -3091,7 +3104,7 @@
         <v>100.80000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>16</v>
       </c>
@@ -3146,7 +3159,7 @@
         <v>3.7</v>
       </c>
       <c r="X10" s="18">
-        <f t="shared" ref="X8:X25" si="7">N10/W10</f>
+        <f t="shared" ref="X10:X25" si="8">N10/W10</f>
         <v>0</v>
       </c>
       <c r="Y10" s="2">
@@ -3154,7 +3167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>17</v>
       </c>
@@ -3215,15 +3228,19 @@
         <f>VLOOKUP(A11,[1]TDSheet!$A:$W,23,0)</f>
         <v>12</v>
       </c>
-      <c r="X11" s="18">
+      <c r="X11" s="25">
         <v>3</v>
       </c>
       <c r="Y11" s="2">
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
+      <c r="AA11" s="2">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
     </row>
-    <row r="12" spans="1:26" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>18</v>
       </c>
@@ -3280,7 +3297,7 @@
         <v>1.8</v>
       </c>
       <c r="X12" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y12" s="2">
@@ -3288,7 +3305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>19</v>
       </c>
@@ -3356,7 +3373,7 @@
         <v>62.900000000000006</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>20</v>
       </c>
@@ -3420,15 +3437,19 @@
         <f>VLOOKUP(A14,[1]TDSheet!$A:$W,23,0)</f>
         <v>6</v>
       </c>
-      <c r="X14" s="18">
+      <c r="X14" s="25">
         <v>66</v>
       </c>
       <c r="Y14" s="2">
         <f t="shared" si="6"/>
         <v>99</v>
       </c>
+      <c r="AA14" s="2">
+        <f t="shared" si="7"/>
+        <v>66</v>
+      </c>
     </row>
-    <row r="15" spans="1:26" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>21</v>
       </c>
@@ -3489,15 +3510,19 @@
         <f>VLOOKUP(A15,[1]TDSheet!$A:$W,23,0)</f>
         <v>12</v>
       </c>
-      <c r="X15" s="18">
+      <c r="X15" s="25">
         <v>33</v>
       </c>
       <c r="Y15" s="2">
         <f t="shared" si="6"/>
         <v>99</v>
       </c>
+      <c r="AA15" s="2">
+        <f t="shared" si="7"/>
+        <v>33</v>
+      </c>
     </row>
-    <row r="16" spans="1:26" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>22</v>
       </c>
@@ -3556,7 +3581,7 @@
         <v>6</v>
       </c>
       <c r="X16" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y16" s="2">
@@ -3564,7 +3589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:25" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>23</v>
       </c>
@@ -3621,7 +3646,7 @@
         <v>8</v>
       </c>
       <c r="X17" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y17" s="2">
@@ -3629,7 +3654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:25" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>24</v>
       </c>
@@ -3692,15 +3717,19 @@
         <f>VLOOKUP(A18,[1]TDSheet!$A:$W,23,0)</f>
         <v>8</v>
       </c>
-      <c r="X18" s="18">
+      <c r="X18" s="25">
         <v>19</v>
       </c>
       <c r="Y18" s="2">
         <f t="shared" si="6"/>
         <v>136.80000000000001</v>
       </c>
+      <c r="AA18" s="2">
+        <f t="shared" si="7"/>
+        <v>19</v>
+      </c>
     </row>
-    <row r="19" spans="1:25" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>25</v>
       </c>
@@ -3763,15 +3792,19 @@
         <f>VLOOKUP(A19,[1]TDSheet!$A:$W,23,0)</f>
         <v>8</v>
       </c>
-      <c r="X19" s="18">
+      <c r="X19" s="25">
         <v>44</v>
       </c>
       <c r="Y19" s="2">
         <f t="shared" si="6"/>
         <v>316.8</v>
       </c>
+      <c r="AA19" s="2">
+        <f t="shared" si="7"/>
+        <v>44</v>
+      </c>
     </row>
-    <row r="20" spans="1:25" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>26</v>
       </c>
@@ -3828,7 +3861,7 @@
         <v>16</v>
       </c>
       <c r="X20" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y20" s="2">
@@ -3836,7 +3869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:25" ht="21.95" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27" ht="21.95" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>27</v>
       </c>
@@ -3894,15 +3927,19 @@
         <f>VLOOKUP(A21,[1]TDSheet!$A:$W,23,0)</f>
         <v>5</v>
       </c>
-      <c r="X21" s="18">
+      <c r="X21" s="25">
         <v>140</v>
       </c>
       <c r="Y21" s="2">
         <f t="shared" si="6"/>
         <v>700</v>
       </c>
+      <c r="AA21" s="2">
+        <f t="shared" si="7"/>
+        <v>140</v>
+      </c>
     </row>
-    <row r="22" spans="1:25" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>28</v>
       </c>
@@ -3965,15 +4002,19 @@
         <f>VLOOKUP(A22,[1]TDSheet!$A:$W,23,0)</f>
         <v>8</v>
       </c>
-      <c r="X22" s="18">
+      <c r="X22" s="25">
         <v>19</v>
       </c>
       <c r="Y22" s="2">
         <f t="shared" si="6"/>
         <v>136.80000000000001</v>
       </c>
+      <c r="AA22" s="2">
+        <f t="shared" si="7"/>
+        <v>19</v>
+      </c>
     </row>
-    <row r="23" spans="1:25" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:27" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>29</v>
       </c>
@@ -4034,15 +4075,19 @@
         <f>VLOOKUP(A23,[1]TDSheet!$A:$W,23,0)</f>
         <v>16</v>
       </c>
-      <c r="X23" s="18">
+      <c r="X23" s="25">
         <v>9</v>
       </c>
       <c r="Y23" s="2">
         <f t="shared" si="6"/>
         <v>61.92</v>
       </c>
+      <c r="AA23" s="2">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
     </row>
-    <row r="24" spans="1:25" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>30</v>
       </c>
@@ -4104,7 +4149,7 @@
         <v>8</v>
       </c>
       <c r="X24" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y24" s="2">
@@ -4112,7 +4157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:25" ht="21.95" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:27" ht="21.95" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>31</v>
       </c>
@@ -4167,7 +4212,7 @@
         <v>8</v>
       </c>
       <c r="X25" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y25" s="2">
@@ -4175,7 +4220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:25" ht="21.95" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:27" ht="21.95" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>32</v>
       </c>
@@ -4229,7 +4274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:25" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>33</v>
       </c>
@@ -4280,22 +4325,26 @@
         <v>13</v>
       </c>
       <c r="V27" s="2">
-        <f t="shared" ref="V27:V32" si="8">N27*H27</f>
+        <f t="shared" ref="V27:V32" si="9">N27*H27</f>
         <v>160</v>
       </c>
       <c r="W27" s="17">
         <f>VLOOKUP(A27,[1]TDSheet!$A:$W,23,0)</f>
         <v>5</v>
       </c>
-      <c r="X27" s="18">
+      <c r="X27" s="25">
         <v>32</v>
       </c>
       <c r="Y27" s="2">
-        <f t="shared" ref="Y27:Y32" si="9">X27*W27*H27</f>
+        <f t="shared" ref="Y27:Y32" si="10">X27*W27*H27</f>
         <v>160</v>
       </c>
+      <c r="AA27" s="2">
+        <f t="shared" si="7"/>
+        <v>32</v>
+      </c>
     </row>
-    <row r="28" spans="1:25" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:27" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>34</v>
       </c>
@@ -4346,22 +4395,26 @@
         <v>0</v>
       </c>
       <c r="V28" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="W28" s="17">
         <f>VLOOKUP(A28,[1]TDSheet!$A:$W,23,0)</f>
         <v>5</v>
       </c>
-      <c r="X28" s="18">
+      <c r="X28" s="25">
         <v>5</v>
       </c>
       <c r="Y28" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
+      <c r="AA28" s="2">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
     </row>
-    <row r="29" spans="1:25" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:27" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>35</v>
       </c>
@@ -4410,22 +4463,26 @@
         <v>0</v>
       </c>
       <c r="V29" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>50</v>
       </c>
       <c r="W29" s="17">
         <f>VLOOKUP(A29,[1]TDSheet!$A:$W,23,0)</f>
         <v>5.5</v>
       </c>
-      <c r="X29" s="18">
+      <c r="X29" s="25">
         <v>9</v>
       </c>
       <c r="Y29" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>49.5</v>
       </c>
+      <c r="AA29" s="2">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
     </row>
-    <row r="30" spans="1:25" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:27" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>36</v>
       </c>
@@ -4472,7 +4529,7 @@
         <v>0</v>
       </c>
       <c r="V30" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W30" s="17">
@@ -4480,15 +4537,15 @@
         <v>6</v>
       </c>
       <c r="X30" s="18">
-        <f t="shared" ref="X27:X32" si="10">N30/W30</f>
+        <f t="shared" ref="X30:X31" si="11">N30/W30</f>
         <v>0</v>
       </c>
       <c r="Y30" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:25" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:27" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>37</v>
       </c>
@@ -4535,7 +4592,7 @@
         <v>1.8</v>
       </c>
       <c r="V31" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W31" s="17">
@@ -4543,15 +4600,15 @@
         <v>3</v>
       </c>
       <c r="X31" s="18">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y31" s="2">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y31" s="2">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="32" spans="1:25" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:27" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>38</v>
       </c>
@@ -4605,22 +4662,26 @@
         <v>38.200000000000003</v>
       </c>
       <c r="V32" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>67.300000000000011</v>
       </c>
       <c r="W32" s="17">
         <f>VLOOKUP(A32,[1]TDSheet!$A:$W,23,0)</f>
         <v>12</v>
       </c>
-      <c r="X32" s="18">
+      <c r="X32" s="25">
         <v>23</v>
       </c>
       <c r="Y32" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>69</v>
       </c>
+      <c r="AA32" s="2">
+        <f t="shared" si="7"/>
+        <v>23</v>
+      </c>
     </row>
-    <row r="33" spans="1:25" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:27" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A33" s="21" t="s">
         <v>60</v>
       </c>
@@ -4667,7 +4728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:25" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:27" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>39</v>
       </c>
@@ -4714,7 +4775,7 @@
         <v>0</v>
       </c>
       <c r="V34" s="2">
-        <f t="shared" ref="V34:V40" si="11">N34*H34</f>
+        <f t="shared" ref="V34:V40" si="12">N34*H34</f>
         <v>0</v>
       </c>
       <c r="W34" s="17">
@@ -4722,15 +4783,15 @@
         <v>1.8</v>
       </c>
       <c r="X34" s="18">
-        <f t="shared" ref="X34:X40" si="12">N34/W34</f>
+        <f t="shared" ref="X34" si="13">N34/W34</f>
         <v>0</v>
       </c>
       <c r="Y34" s="2">
-        <f t="shared" ref="Y34:Y40" si="13">X34*W34*H34</f>
+        <f t="shared" ref="Y34:Y40" si="14">X34*W34*H34</f>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:25" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:27" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
         <v>40</v>
       </c>
@@ -4784,22 +4845,26 @@
         <v>4.2</v>
       </c>
       <c r="V35" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>9.6000000000000014</v>
       </c>
       <c r="W35" s="17">
         <f>VLOOKUP(A35,[1]TDSheet!$A:$W,23,0)</f>
         <v>6</v>
       </c>
-      <c r="X35" s="18">
+      <c r="X35" s="25">
         <v>8</v>
       </c>
       <c r="Y35" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.6000000000000014</v>
       </c>
+      <c r="AA35" s="2">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
     </row>
-    <row r="36" spans="1:25" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:27" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
         <v>41</v>
       </c>
@@ -4828,7 +4893,7 @@
         <v>5.6</v>
       </c>
       <c r="N36" s="19">
-        <f t="shared" ref="N36:N37" si="14">12*M36-G36</f>
+        <f t="shared" ref="N36:N37" si="15">12*M36-G36</f>
         <v>38.199999999999989</v>
       </c>
       <c r="O36" s="19"/>
@@ -4853,22 +4918,26 @@
         <v>4.2</v>
       </c>
       <c r="V36" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.6399999999999979</v>
       </c>
       <c r="W36" s="17">
         <f>VLOOKUP(A36,[1]TDSheet!$A:$W,23,0)</f>
         <v>6</v>
       </c>
-      <c r="X36" s="18">
+      <c r="X36" s="25">
         <v>7</v>
       </c>
       <c r="Y36" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8.4</v>
       </c>
+      <c r="AA36" s="2">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
     </row>
-    <row r="37" spans="1:25" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:27" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
         <v>42</v>
       </c>
@@ -4900,7 +4969,7 @@
         <v>40.799999999999997</v>
       </c>
       <c r="N37" s="19">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>266.59999999999997</v>
       </c>
       <c r="O37" s="19"/>
@@ -4925,22 +4994,26 @@
         <v>40.799999999999997</v>
       </c>
       <c r="V37" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>66.649999999999991</v>
       </c>
       <c r="W37" s="17">
         <f>VLOOKUP(A37,[1]TDSheet!$A:$W,23,0)</f>
         <v>12</v>
       </c>
-      <c r="X37" s="18">
+      <c r="X37" s="25">
         <v>23</v>
       </c>
       <c r="Y37" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>69</v>
       </c>
+      <c r="AA37" s="2">
+        <f t="shared" si="7"/>
+        <v>23</v>
+      </c>
     </row>
-    <row r="38" spans="1:25" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:27" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>43</v>
       </c>
@@ -4997,22 +5070,26 @@
         <v>30</v>
       </c>
       <c r="V38" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>75.300000000000011</v>
       </c>
       <c r="W38" s="17">
         <f>VLOOKUP(A38,[1]TDSheet!$A:$W,23,0)</f>
         <v>12</v>
       </c>
-      <c r="X38" s="18">
+      <c r="X38" s="25">
         <v>25</v>
       </c>
       <c r="Y38" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>75</v>
       </c>
+      <c r="AA38" s="2">
+        <f t="shared" si="7"/>
+        <v>25</v>
+      </c>
     </row>
-    <row r="39" spans="1:25" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:27" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A39" s="21" t="s">
         <v>61</v>
       </c>
@@ -5057,7 +5134,7 @@
         <v>0</v>
       </c>
       <c r="V39" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
       <c r="W39" s="17">
@@ -5068,11 +5145,11 @@
         <v>37</v>
       </c>
       <c r="Y39" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>99.9</v>
       </c>
     </row>
-    <row r="40" spans="1:25" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:27" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A40" s="21" t="s">
         <v>62</v>
       </c>
@@ -5117,7 +5194,7 @@
         <v>0</v>
       </c>
       <c r="V40" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
       <c r="W40" s="17">
@@ -5128,11 +5205,11 @@
         <v>20</v>
       </c>
       <c r="Y40" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:25" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:27" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
         <v>8</v>
       </c>
@@ -5183,7 +5260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:25" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:27" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
         <v>10</v>
       </c>
